--- a/調貨建議_20251208.xlsx
+++ b/調貨建議_20251208.xlsx
@@ -622,42 +622,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -712,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -728,7 +723,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,19 +1024,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="17" max="17" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6941,8 +6936,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1">
